--- a/Ferramenta.xlsx
+++ b/Ferramenta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\texti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\texti\OneDrive\Área de Trabalho\excel\simulador_investimentos_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B825FE0C-0E81-4993-B773-F28189F0E859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95C07F3-C41D-425D-857E-426AC3C21851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -750,7 +750,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,12 +764,33 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -786,31 +806,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
@@ -2111,8 +2110,8 @@
   </sheetPr>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="42" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="62" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2141,35 +2140,35 @@
     <row r="11" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
     </row>
     <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="60"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="18">
         <v>5000</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="60"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="19">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="20">
         <f>D14*30%</f>
         <v>1500</v>
@@ -2177,55 +2176,55 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="67"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="5">
         <f>rendimento_carteira</f>
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="6">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>83776.913998487638</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="7">
         <f>patrimonio*rendimento_carteira</f>
         <v>903.95290204368155</v>
@@ -2483,16 +2482,16 @@
     <row r="80" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33" xr:uid="{B36F1E22-E37B-450D-AEA1-580A1B0250FE}">
@@ -2543,13 +2542,13 @@
         <f>B2&amp;"-"&amp;C2</f>
         <v>Conservador-PAPEL</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="45">
         <v>0.3</v>
       </c>
     </row>
@@ -2558,13 +2557,13 @@
         <f>B3&amp;"-"&amp;C3</f>
         <v>Conservador-TIJOLO</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>0.5</v>
       </c>
     </row>
@@ -2573,13 +2572,13 @@
         <f>B4&amp;"-"&amp;C4</f>
         <v>Conservador-FOFs</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>0.1</v>
       </c>
     </row>
@@ -2588,13 +2587,13 @@
         <f>B5&amp;"-"&amp;C5</f>
         <v>Conservador-HÍBRIDOS</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>0.1</v>
       </c>
     </row>
@@ -2603,13 +2602,13 @@
         <f t="shared" ref="A6:A7" si="0">B6&amp;"-"&amp;C6</f>
         <v>Conservador-DESENVOLVIMENTO</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>0</v>
       </c>
     </row>
@@ -2618,34 +2617,32 @@
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIAS</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="47"/>
+      <c r="D8" s="46"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="str">
         <f>B9&amp;"-"&amp;C9</f>
         <v>Moderado-PAPEL</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="47">
         <v>0.32</v>
       </c>
     </row>
@@ -2654,13 +2651,13 @@
         <f>B10&amp;"-"&amp;C10</f>
         <v>Moderado-TIJOLO</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="47">
         <v>0.35</v>
       </c>
       <c r="E10" s="21"/>
@@ -2671,13 +2668,13 @@
         <f>B11&amp;"-"&amp;C11</f>
         <v>Moderado-FOFs</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="47">
         <v>0.08</v>
       </c>
     </row>
@@ -2686,13 +2683,13 @@
         <f>B12&amp;"-"&amp;C12</f>
         <v>Moderado-HÍBRIDOS</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="47">
         <v>0.05</v>
       </c>
     </row>
@@ -2701,13 +2698,13 @@
         <f t="shared" ref="A13:A14" si="1">B13&amp;"-"&amp;C13</f>
         <v>Moderado-DESENVOLVIMENTO</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="47">
         <v>0.1</v>
       </c>
     </row>
@@ -2716,35 +2713,33 @@
         <f t="shared" si="1"/>
         <v>Moderado-HOTELARIAS</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="47">
         <v>0.1</v>
       </c>
       <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="47"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="str">
         <f>B16&amp;"-"&amp;C16</f>
         <v>Agressivo-PAPEL</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="47">
         <v>0.5</v>
       </c>
     </row>
@@ -2753,13 +2748,13 @@
         <f>B17&amp;"-"&amp;C17</f>
         <v>Agressivo-TIJOLO</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="47">
         <v>0.1</v>
       </c>
     </row>
@@ -2768,13 +2763,13 @@
         <f>B18&amp;"-"&amp;C18</f>
         <v>Agressivo-FOFs</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="47">
         <v>0.05</v>
       </c>
     </row>
@@ -2783,13 +2778,13 @@
         <f>B19&amp;"-"&amp;C19</f>
         <v>Agressivo-HÍBRIDOS</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="47">
         <v>0.05</v>
       </c>
     </row>
@@ -2798,28 +2793,28 @@
         <f t="shared" ref="A20:A21" si="2">B20&amp;"-"&amp;C20</f>
         <v>Agressivo-DESENVOLVIMENTO</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="47">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="str">
+      <c r="A21" s="48" t="str">
         <f t="shared" si="2"/>
         <v>Agressivo-HOTELARIAS</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="50">
         <v>0.1</v>
       </c>
     </row>
